--- a/data/income_statement/2digits/size/68_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/68_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>68-Real estate activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>68-Real estate activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1151 +841,1301 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>372681.5244699999</v>
+        <v>453814.9944800001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>421203.97413</v>
+        <v>519592.31448</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>539419.67888</v>
+        <v>651531.7246699999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>569703.34055</v>
+        <v>719467.8171799999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>584603.1365</v>
+        <v>829293.17862</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>707752.2915999999</v>
+        <v>1014156.5114</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>818164.32331</v>
+        <v>1087997.60613</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>901483.25401</v>
+        <v>1202561.93797</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>958870.8550200001</v>
+        <v>1282174.88196</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1888383.86767</v>
+        <v>2836436.78453</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2446714.44733</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3400720.66156</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3692297.933</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>339058.02126</v>
+        <v>403982.81446</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>382724.34818</v>
+        <v>462220.94319</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>495107.52783</v>
+        <v>591617.3660599999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>526662.3447100001</v>
+        <v>653380.0066400002</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>540620.3303</v>
+        <v>739857.28132</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>647138.2198</v>
+        <v>899991.22431</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>771091.65569</v>
+        <v>999650.96072</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>837182.7363399999</v>
+        <v>1099833.02239</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>872295.90949</v>
+        <v>1154802.9193</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1701164.33131</v>
+        <v>2570042.58465</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2209628.80748</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3060107.355479999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3333729.726</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>12569.78061</v>
+        <v>13629.5404</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>12715.99987</v>
+        <v>15530.19191</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>16009.73614</v>
+        <v>19437.10717</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>16809.54043</v>
+        <v>19327.40879</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>12785.76654</v>
+        <v>17796.99991</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>27317.56013</v>
+        <v>31908.73554</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>21515.82967</v>
+        <v>32666.69685</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>26031.79312</v>
+        <v>31856.45653</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>48696.93382</v>
+        <v>55162.32717</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>93019.69983</v>
+        <v>108864.033</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>130807.8759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>164391.43667</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>163608.521</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>21053.7226</v>
+        <v>36202.63961999999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>25763.62608</v>
+        <v>41841.17938</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>28302.41491</v>
+        <v>40477.25144</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>26231.45541</v>
+        <v>46760.40175</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>31197.03966</v>
+        <v>71638.89739</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>33296.51167</v>
+        <v>82256.55155</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>25556.83795</v>
+        <v>55679.94856</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>38268.72455000001</v>
+        <v>70872.45904999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>37878.01171</v>
+        <v>72209.63549000002</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>94199.83653</v>
+        <v>157530.16688</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>106277.76395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>176221.86941</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>194959.686</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>765.06332</v>
+        <v>1166.36615</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1165.43783</v>
+        <v>1639.97987</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1208.55447</v>
+        <v>1601.40167</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1754.51139</v>
+        <v>2396.30035</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1719.00971</v>
+        <v>3527.9084</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>5107.91974</v>
+        <v>6163.132320000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2129.89737</v>
+        <v>2902.10616</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>5870.95258</v>
+        <v>8017.28768</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1937.80494</v>
+        <v>4420.285190000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>6593.905569999999</v>
+        <v>13359.83889</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>10581.86991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>19398.20611</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>72197.094</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>683.86026</v>
+        <v>995.3502</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1004.96055</v>
+        <v>1340.41241</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>790.55088</v>
+        <v>1169.25031</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1712.02068</v>
+        <v>2265.05861</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1548.53935</v>
+        <v>2912.40323</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>5034.44753</v>
+        <v>6016.921800000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1642.71063</v>
+        <v>2309.724640000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>5463.736400000001</v>
+        <v>7455.87846</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1680.69908</v>
+        <v>3637.97978</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>4162.66774</v>
+        <v>10213.84051</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>7490.293519999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14893.94219</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>67926.804</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>34.02766</v>
+        <v>122.75786</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>44.51287</v>
+        <v>66.5985</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>121.55136</v>
+        <v>133.01657</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>32.66791</v>
+        <v>44.15824</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>50.27575</v>
+        <v>199.106</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>50.43196</v>
+        <v>69.93774999999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>74.49838000000001</v>
+        <v>100.1232</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>195.88246</v>
+        <v>248.86519</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>12.60191</v>
+        <v>536.96586</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>103.8311</v>
+        <v>490.92289</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>697.62487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1651.54777</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>2497.83</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>47.1754</v>
+        <v>48.25809</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>115.96441</v>
+        <v>232.96896</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>296.45223</v>
+        <v>299.13479</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>9.822800000000001</v>
+        <v>87.0835</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>120.19461</v>
+        <v>416.39917</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>23.04025</v>
+        <v>76.27277000000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>412.68836</v>
+        <v>492.25832</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>211.33372</v>
+        <v>312.54403</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>244.50395</v>
+        <v>245.33955</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2327.40673</v>
+        <v>2655.07549</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2393.95152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2852.71615</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1772.46</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>371916.46115</v>
+        <v>452648.62833</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>420038.5363</v>
+        <v>517952.33461</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>538211.1244099999</v>
+        <v>649930.3229999999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>567948.82916</v>
+        <v>717071.5168300001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>582884.12679</v>
+        <v>825765.2702200002</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>702644.3718599998</v>
+        <v>1007993.37908</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>816034.42594</v>
+        <v>1085095.49997</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>895612.30143</v>
+        <v>1194544.65029</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>956933.05008</v>
+        <v>1277754.59677</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1881789.9621</v>
+        <v>2823076.945640001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2436132.57742</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3381322.45545</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3620100.839</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>256125.24432</v>
+        <v>289099.4588</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>288164.22752</v>
+        <v>323019.14185</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>379279.03399</v>
+        <v>433709.64</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>394376.5316</v>
+        <v>457018.30989</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>371782.21482</v>
+        <v>461152.90558</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>463358.07411</v>
+        <v>582024.6417800001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>587581.88664</v>
+        <v>717268.03811</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>645849.81641</v>
+        <v>789741.43154</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>688258.92671</v>
+        <v>838784.8364199999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1347891.57982</v>
+        <v>1885730.35094</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1753613.79144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2208324.62567</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2341413.801</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>33772.38187</v>
+        <v>40485.26896</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>34606.88711</v>
+        <v>38864.77172</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>36430.94198</v>
+        <v>45108.98886</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>55648.52524</v>
+        <v>61460.52073</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>35134.68532</v>
+        <v>45361.60914</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>46899.58973000001</v>
+        <v>62626.50173</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>46652.75264</v>
+        <v>60249.8593</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>33414.75157</v>
+        <v>50261.47973</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>50296.15887000001</v>
+        <v>71156.82398999999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>110613.74703</v>
+        <v>132861.99641</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>172864.1438</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>206590.56537</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>145688.669</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>116371.97231</v>
+        <v>129664.50399</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>149067.32332</v>
+        <v>164165.22734</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>196657.17504</v>
+        <v>216853.00199</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>190556.10089</v>
+        <v>215169.97268</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>171235.31424</v>
+        <v>201745.02712</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>202437.08643</v>
+        <v>244046.24444</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>318291.17448</v>
+        <v>365405.34083</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>351093.77132</v>
+        <v>409708.04908</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>344197.52075</v>
+        <v>398258.2501800001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>664311.37757</v>
+        <v>1038117.36958</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>902018.78059</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1154460.02467</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1248702.528</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>105127.71892</v>
+        <v>117543.93423</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>102710.69679</v>
+        <v>117855.94026</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>144826.01692</v>
+        <v>170070.95182</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>144549.43689</v>
+        <v>175017.94402</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>162539.36347</v>
+        <v>208389.04744</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>209467.27537</v>
+        <v>264114.65551</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>214627.15334</v>
+        <v>280120.01118</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>249495.42822</v>
+        <v>311840.33104</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>284646.0266099999</v>
+        <v>352309.80547</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>539039.1386900001</v>
+        <v>669340.32646</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>635107.6695</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>792710.85765</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>886435.8689999999</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>853.1712199999999</v>
+        <v>1405.75162</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1779.3203</v>
+        <v>2133.20253</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1364.90005</v>
+        <v>1676.69733</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>3622.46858</v>
+        <v>5369.87246</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>2872.85179</v>
+        <v>5657.22188</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>4554.12258</v>
+        <v>11237.2401</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>8010.80618</v>
+        <v>11492.8268</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>11845.8653</v>
+        <v>17931.57169</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>9119.22048</v>
+        <v>17059.95678</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>33927.31653</v>
+        <v>45410.65849</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>43623.19755</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>54563.17798000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>60586.735</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>115791.21683</v>
+        <v>163549.16953</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>131874.30878</v>
+        <v>194933.19276</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>158932.09042</v>
+        <v>216220.683</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>173572.29756</v>
+        <v>260053.20694</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>211101.91197</v>
+        <v>364612.36464</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>239286.29775</v>
+        <v>425968.7373</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>228452.5393</v>
+        <v>367827.46186</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>249762.48502</v>
+        <v>404803.21875</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>268674.12337</v>
+        <v>438969.7603499999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>533898.38228</v>
+        <v>937346.5947</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>682518.78598</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1172997.82978</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1278687.038</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>132650.38531</v>
+        <v>215439.01212</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>151053.74331</v>
+        <v>258051.84509</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>188509.01819</v>
+        <v>332148.76901</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>213989.04539</v>
+        <v>367989.75022</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>252079.81666</v>
+        <v>488908.5642199999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>296175.39019</v>
+        <v>593592.7194100001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>312844.96538</v>
+        <v>604407.79798</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>362949.0945</v>
+        <v>714039.3003999999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>393756.72924</v>
+        <v>745526.91185</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>693492.826</v>
+        <v>1196007.15796</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>800027.59837</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1382233.64936</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1552798.925</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>154.788</v>
+        <v>601.59614</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>153.19667</v>
+        <v>471.62372</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>299.82513</v>
+        <v>314.59227</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>109.69226</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>81.02578</v>
+        <v>150.94189</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>72.76262</v>
+        <v>365.0584700000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>212.4183</v>
+        <v>581.38243</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>228.75865</v>
+        <v>1034.78197</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>373.12933</v>
+        <v>402.99979</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>317.17544</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4936.689240000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4954.95712</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2410.152</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>9663.52484</v>
+        <v>13161.30936</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>12816.07536</v>
+        <v>18212.87101</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>18429.09705</v>
+        <v>23500.11241</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>21966.57975</v>
+        <v>28236.02486</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>23855.90477</v>
+        <v>38279.58081</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>27608.46127</v>
+        <v>53162.0002</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>32605.94968</v>
+        <v>44519.94334</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>39637.87418999999</v>
+        <v>54757.55182</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>45301.44355</v>
+        <v>66900.90103000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>92286.31230000001</v>
+        <v>142146.50468</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>92232.81843000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>144905.10644</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>153726.676</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>122832.07247</v>
+        <v>201676.10662</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>138084.47128</v>
+        <v>239367.35036</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>169780.09601</v>
+        <v>308334.06433</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>191912.77338</v>
+        <v>339644.0331</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>228142.88611</v>
+        <v>450478.04152</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>268494.1663</v>
+        <v>540065.66074</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>280026.5974</v>
+        <v>559306.4722099999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>323082.46166</v>
+        <v>658246.96661</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>348082.15636</v>
+        <v>678223.0110299999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>600889.33826</v>
+        <v>1053543.47784</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>702858.0907000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1232373.5858</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1396662.097</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-16859.16848</v>
+        <v>-51889.84259</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-19179.43453</v>
+        <v>-63118.65233</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-29576.92777</v>
+        <v>-115928.08601</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-40416.74783</v>
+        <v>-107936.54328</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-40977.90469</v>
+        <v>-124296.19958</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-56889.09244</v>
+        <v>-167623.98211</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-84392.42608000002</v>
+        <v>-236580.33612</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-113186.60948</v>
+        <v>-309236.0816499999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-125082.60587</v>
+        <v>-306557.1515</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-159594.44372</v>
+        <v>-258660.56326</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-117508.81239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-209235.81958</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-274111.887</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>14621.17089</v>
+        <v>163062.72732</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>14223.33576</v>
+        <v>282509.06369</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>18828.72601</v>
+        <v>541853.96513</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>21883.47545</v>
+        <v>335284.01651</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>24917.70895</v>
+        <v>579109.34182</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>41103.66474</v>
+        <v>581205.4845599999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>30480.52321</v>
+        <v>848637.37977</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>30097.62199</v>
+        <v>1442079.45654</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>26367.41116</v>
+        <v>796898.58018</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>108440.18587</v>
+        <v>2615077.93291</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>69232.54150000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2100879.87928</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1475610.909</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>323.62472</v>
+        <v>3876.95925</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>217.58473</v>
+        <v>3659.30404</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>205.53922</v>
+        <v>4467.5667</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>206.26018</v>
+        <v>9277.870339999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>292.03964</v>
+        <v>46791.89778</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1162.57766</v>
+        <v>39730.64328</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1137.43458</v>
+        <v>76947.98470999999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1463.4079</v>
+        <v>430958.77861</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>228.33112</v>
+        <v>115847.54416</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>498.29217</v>
+        <v>268016.10835</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1212.17242</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>250594.05563</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>93904.791</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>97.28494000000001</v>
+        <v>5831.94809</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0</v>
+        <v>32015.88842</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>104.01454</v>
+        <v>38242.80518</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>38257.78036</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>101.55966</v>
+        <v>53949.39921</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>62.66946</v>
+        <v>57624.04929</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>7.4044</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>29.9358</v>
+        <v>1102.91738</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>1.30354</v>
+        <v>66805.53102000001</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>104.63954</v>
+        <v>96134.40815999999</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>572.62063</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>362663.75731</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>41533.433</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1745.41366</v>
+        <v>37920.83086</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1295.94124</v>
+        <v>38475.24285</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1606.99852</v>
+        <v>52115.43569999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2360.77754</v>
+        <v>44008.75953</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2093.45586</v>
+        <v>28695.71178</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>2317.6787</v>
+        <v>53038.05067</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2462.33705</v>
+        <v>33766.60627</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2273.67473</v>
+        <v>57800.04325</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>2721.06088</v>
+        <v>74874.87042000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>21509.94059</v>
+        <v>175359.77978</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>14756.8591</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>150108.00203</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>114276.437</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>979.74616</v>
+        <v>1142.25725</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>765.27377</v>
+        <v>885.22874</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1233.90112</v>
+        <v>1794.76916</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1369.82941</v>
+        <v>1813.0481</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1220.78471</v>
+        <v>1405.65265</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>499.41596</v>
+        <v>689.01776</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>673.28523</v>
+        <v>873.4751</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>665.5201599999999</v>
+        <v>4217.67086</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1598.37967</v>
+        <v>1698.97416</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>4953.35239</v>
+        <v>6672.629640000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>3257.8895</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>4620.39381</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>7707.432</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>249.48133</v>
+        <v>339.52421</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>103.95793</v>
+        <v>225.89854</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>109.9654</v>
+        <v>1134.50912</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>81.46184</v>
+        <v>1512.13923</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>146.24727</v>
+        <v>1434.72281</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>275.34621</v>
+        <v>1558.22686</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>257.74459</v>
+        <v>2300.37154</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>145.10633</v>
+        <v>2185.10694</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>102.58214</v>
+        <v>2339.09704</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>760.86795</v>
+        <v>2117.71497</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>442.20623</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>4893.97076</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>9381.778</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>103.98762</v>
+        <v>772.9191999999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>68.935</v>
+        <v>776.4206999999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>95.66668</v>
+        <v>23600.614</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>92.62797</v>
+        <v>38792.50674</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>452.57405</v>
+        <v>148443.54333</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>109.49636</v>
+        <v>10888.81471</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1071.86081</v>
+        <v>67569.40977</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2167.87527</v>
+        <v>35982.39748</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>558.1873900000001</v>
+        <v>30251.63775</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1004.69918</v>
+        <v>183316.27697</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>922.9964199999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>58088.89682</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>47065.902</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2232.03796</v>
+        <v>79838.25754999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>2238.73263</v>
+        <v>161638.73344</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>3450.70718</v>
+        <v>374689.56386</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>2402.49393</v>
+        <v>143510.50163</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>3387.48433</v>
+        <v>219550.95702</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>12911.24731</v>
+        <v>304257.9142</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>13642.39748</v>
+        <v>605517.7834000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>8138.858810000001</v>
+        <v>833560.8626700001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4425.515780000001</v>
+        <v>441268.60831</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>47290.26197</v>
+        <v>1451765.51346</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>14384.19045</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>690660.82001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>988130.827</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>140.9451</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>4.39999</v>
+        <v>34.83794</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>36.42001999999999</v>
+        <v>209.22115</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>1.0318</v>
+        <v>9.777670000000001</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>27.24547</v>
+        <v>647.38328</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>32.40623</v>
+        <v>117.16302</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>39.71469</v>
+        <v>58.70489</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>27.44221</v>
+        <v>41.78967</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>84.65692999999999</v>
+        <v>238.90261</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>59.3225</v>
+        <v>588.442</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>50.21204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>399.88368</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>647.144</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>97.62371</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>50.16176</v>
+        <v>3089.04052</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>47.14758999999999</v>
@@ -2093,19 +2144,19 @@
         <v>23.5328</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>62.9662</v>
+        <v>182.18676</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>4055.63491</v>
+        <v>4130.109930000001</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>31.87053</v>
+        <v>76.15203</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>14.22001</v>
+        <v>338.26311</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>188.63369</v>
+        <v>192.31251</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>171.87218</v>
@@ -2113,284 +2164,324 @@
       <c r="M34" s="48" t="n">
         <v>112.23042</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>124.926</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>8651.025689999999</v>
+        <v>33101.4621</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>9478.348709999998</v>
+        <v>41708.4685</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>11938.36574</v>
+        <v>45552.33267</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>15345.45998</v>
+        <v>58078.10011</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>17133.35176</v>
+        <v>78007.8872</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>19677.19194</v>
+        <v>109171.49484</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>11156.47385</v>
+        <v>61519.48766000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>15171.58077</v>
+        <v>75891.62657000001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>16458.76002</v>
+        <v>63381.1022</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>32086.9374</v>
+        <v>430935.1874</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>33521.16429</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>578737.8688099999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>172838.239</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>5106.24738</v>
+        <v>68790.97459</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>5143.149539999999</v>
+        <v>163527.93333</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>5296.60959</v>
+        <v>398979.50481</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>7196.341520000001</v>
+        <v>208572.31725</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>6346.57461</v>
+        <v>347956.71036</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>19712.1706</v>
+        <v>413015.92701</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>26433.46238</v>
+        <v>723654.61832</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>22305.46702</v>
+        <v>1074159.9245</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>11788.35057</v>
+        <v>742529.37862</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>65824.22173999999</v>
+        <v>2419337.49785</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>34189.25414</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1071233.30501</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1720821.099</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>381.88703</v>
+        <v>722.30265</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>281.71488</v>
+        <v>532.49779</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>254.61803</v>
+        <v>1024.24761</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>670.18691</v>
+        <v>823.7411800000001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>843.57574</v>
+        <v>1110.74444</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>884.6339399999999</v>
+        <v>1363.82763</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>570.09024</v>
+        <v>907.5619799999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>626.06253</v>
+        <v>826.81766</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1746.70735</v>
+        <v>4949.78835</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1485.06759</v>
+        <v>5500.65522</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3641.29234</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>4625.72504</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>6339.759</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1069.29097</v>
+        <v>2592.97509</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>527.3116799999999</v>
+        <v>616.4645599999999</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>831.1105500000001</v>
+        <v>6997.46262</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2362.99884</v>
+        <v>2492.78283</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>398.27364</v>
+        <v>4061.36406</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>797.4514200000001</v>
+        <v>4323.691360000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>686.70272</v>
+        <v>2630.12358</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1388.16371</v>
+        <v>1606.92218</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>434.34935</v>
+        <v>3586.64695</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>6726.035400000001</v>
+        <v>8740.985560000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>3555.6645</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>11954.2559</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>11583.85</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>92.56574000000001</v>
+        <v>152.00151</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>2.29817</v>
+        <v>514.9775</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>7.27217</v>
+        <v>23519.90513</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>167.03835</v>
+        <v>38009.21274</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>1434.92684</v>
+        <v>36206.17421</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>73.76497999999999</v>
+        <v>9004.07235</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>819.46938</v>
+        <v>25898.85749</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>2721.03035</v>
+        <v>26797.1382</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>357.7921</v>
+        <v>31775.92441</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>511.90562</v>
+        <v>36910.13837</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>103.06194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>64697.21827</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>3031.627</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2489.02996</v>
+        <v>61859.58069</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2814.93591</v>
+        <v>149094.14538</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2772.52157</v>
+        <v>249789.39238</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2599.94702</v>
+        <v>161463.81599</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1867.2918</v>
+        <v>301136.08866</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>11369.2559</v>
+        <v>358529.71397</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>22100.28948</v>
+        <v>679845.00057</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>12636.05868</v>
+        <v>1025089.47846</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>5573.943</v>
+        <v>676744.45762</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>50729.69101</v>
+        <v>2316152.04333</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>17090.98718</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>894487.5038599999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1649971.339</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>2.89403</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>1.4147</v>
+        <v>80.82521000000001</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>88.83775</v>
+        <v>179.03389</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>34.44596</v>
+        <v>34.47001</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>4.966159999999999</v>
+        <v>349.76893</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>0.01442</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>0.88636</v>
+        <v>7143.600570000001</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0</v>
+        <v>4804.29137</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>5.74973</v>
+        <v>759.84916</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>686.696</v>
+        <v>689.0685699999999</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>736.45488</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>753.27125</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>1108.257</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>30.37858</v>
@@ -2405,613 +2496,691 @@
         <v>29.89467</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>13.19593</v>
+        <v>13.88601</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>2635.57576</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>26.92588</v>
+        <v>32.93404</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>18.2449</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>0.0575</v>
+        <v>0.05765</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>0</v>
+        <v>1e-05</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>7.000000000000001e-05</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.7639300000000001</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>63.791</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1040.20107</v>
+        <v>3430.84204</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1437.43425</v>
+        <v>12610.98294</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1225.72068</v>
+        <v>117352.93434</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1331.82977</v>
+        <v>5718.39983</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1784.3445</v>
+        <v>5078.68405</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3951.47418</v>
+        <v>37159.03152</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2229.09832</v>
+        <v>7196.54009</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>4915.90685</v>
+        <v>15017.03173</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3669.75154</v>
+        <v>24712.65448</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>5684.82612</v>
+        <v>51344.60679000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>9061.793230000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>94714.56675999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>48722.476</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>3076.32026</v>
+        <v>61165.39341</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>3755.31287</v>
+        <v>94711.25344</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>5510.045800000001</v>
+        <v>114689.29695</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>4714.17717</v>
+        <v>38207.11593</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>7456.478950000001</v>
+        <v>63546.50407</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>12745.65726</v>
+        <v>103258.40611</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>10895.38893</v>
+        <v>126821.09797</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>8242.021470000002</v>
+        <v>181565.60932</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>8298.877130000001</v>
+        <v>197087.83917</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>60269.10185</v>
+        <v>440938.16701</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>41383.00221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>344029.03974</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>357300.151</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>2851.78794</v>
+        <v>39948.31838</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>3163.32994</v>
+        <v>68725.42853</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>5394.826980000001</v>
+        <v>93217.22443</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>4430.77911</v>
+        <v>30156.0987</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>7173.60492</v>
+        <v>43816.64531</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>12405.73178</v>
+        <v>83829.01961</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>10458.00072</v>
+        <v>102996.14129</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>7771.29049</v>
+        <v>160821.66012</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>7776.7285</v>
+        <v>187933.19401</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>56827.13031</v>
+        <v>418803.98584</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>38852.9869</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>327980.37664</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>332864.202</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>224.53232</v>
+        <v>21217.07503</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>591.9829299999999</v>
+        <v>25985.82491</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>115.21882</v>
+        <v>21472.07252</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>283.39806</v>
+        <v>8051.01723</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>282.87403</v>
+        <v>19729.85876</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>339.9254800000001</v>
+        <v>19429.3865</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>437.38821</v>
+        <v>23824.95668</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>470.73098</v>
+        <v>20743.9492</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>522.14863</v>
+        <v>9154.64516</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>3441.97154</v>
+        <v>22134.18117</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2530.01531</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>16048.6631</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>24435.949</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-10420.56523</v>
+        <v>-18783.48327</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-13854.56118</v>
+        <v>-38848.77540999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-21554.85715</v>
+        <v>-87742.92264</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-30443.79107</v>
+        <v>-19431.95995</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-29863.2493</v>
+        <v>43309.92780999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-48243.25556000001</v>
+        <v>-102692.83067</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-91240.75418</v>
+        <v>-238418.67264</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-113636.47598</v>
+        <v>-122882.15893</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-118802.42241</v>
+        <v>-449275.78911</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-177247.58144</v>
+        <v>-503858.29521</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-123848.52724</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>476381.7149500001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-876622.228</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>4056.52824</v>
+        <v>18136.33212</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>4918.91089</v>
+        <v>19662.39234</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>7153.73679</v>
+        <v>24429.37856</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>9721.994210000001</v>
+        <v>22441.09118</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>10645.00632</v>
+        <v>50833.25558999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>17524.88103</v>
+        <v>157989.97063</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>17219.68607</v>
+        <v>129265.63862</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>19245.14995</v>
+        <v>117488.07772</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>20693.13823</v>
+        <v>103211.8048</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>42975.71490000001</v>
+        <v>133883.53921</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>54812.02737</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>446705.3098400001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>171535.484</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>63.02648000000001</v>
+        <v>233.18731</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>87.34419</v>
+        <v>188.16842</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>169.11669</v>
+        <v>243.8604</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>93.09235000000001</v>
+        <v>189.28182</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>93.65572</v>
+        <v>324.38719</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>112.37289</v>
+        <v>890.1385099999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>154.92971</v>
+        <v>1804.72306</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>129.5365</v>
+        <v>574.6871</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>285.45141</v>
+        <v>374.27523</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>859.6423599999999</v>
+        <v>6455.34481</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>316.67429</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>641.22732</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3583.093</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>3993.50176</v>
+        <v>17903.14481</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>4831.5667</v>
+        <v>19474.22392</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>6984.620100000001</v>
+        <v>24185.51816</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>9628.901860000002</v>
+        <v>22251.80936</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>10551.3506</v>
+        <v>50508.86840000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>17412.50814</v>
+        <v>157099.83212</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>17064.75636</v>
+        <v>127460.91556</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>19115.61345</v>
+        <v>116913.39062</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>20407.68682</v>
+        <v>102837.52957</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>42116.07254000001</v>
+        <v>127428.1944</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>54495.35308</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>446064.08252</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>167952.391</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>6904.59069</v>
+        <v>15392.68344</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>6781.89569</v>
+        <v>17194.96657</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>53957.88863</v>
+        <v>86742.26521</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>8888.35541</v>
+        <v>35855.28416</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>9648.58743</v>
+        <v>86142.89189</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>45151.80284</v>
+        <v>158586.76142</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>16512.4606</v>
+        <v>82025.75182999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>40514.95676000001</v>
+        <v>145356.35116</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>17849.02475</v>
+        <v>74795.18852</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>87260.73994</v>
+        <v>267962.19011</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>50332.06528</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>152901.96297</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>157556.856</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>193.47912</v>
+        <v>240.77212</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>157.70703</v>
+        <v>204.84604</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>121.89954</v>
+        <v>122.5652</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>52.34928</v>
+        <v>258.36157</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>108.9972</v>
+        <v>1373.9983</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>283.28539</v>
+        <v>3163.45457</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>330.99585</v>
+        <v>1263.26757</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>522.66305</v>
+        <v>1563.64514</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>196.04223</v>
+        <v>1074.93702</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>297.68896</v>
+        <v>3520.71993</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>267.3943</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1258.65279</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>4234.224</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1477.46977</v>
+        <v>3482.01599</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>633.53903</v>
+        <v>3486.13727</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1315.55772</v>
+        <v>2975.01428</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1113.91456</v>
+        <v>3512.90043</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1313.62893</v>
+        <v>2736.603779999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>864.73385</v>
+        <v>5973.74951</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1147.37048</v>
+        <v>4402.40529</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2152.51131</v>
+        <v>4093.96753</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1575.75143</v>
+        <v>7510.87505</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>10607.88994</v>
+        <v>13000.96632</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3283.0974</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>6339.493890000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>5451.76</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>5233.641799999999</v>
+        <v>11669.89533</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>5990.64963</v>
+        <v>13503.98326</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>52520.43137000001</v>
+        <v>83644.68573000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>7722.09157</v>
+        <v>32084.02216</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>8225.961300000001</v>
+        <v>82032.28980999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>44003.7836</v>
+        <v>149449.55734</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>15034.09427</v>
+        <v>76360.07896999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>37839.7824</v>
+        <v>139698.73849</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>16077.23109</v>
+        <v>66209.37645</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>76355.16104000001</v>
+        <v>251440.50386</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>46781.57358</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>145303.81629</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>147870.872</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-13268.62768</v>
+        <v>-16039.83459</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-15717.54598</v>
+        <v>-36381.34964</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-68359.00899000002</v>
+        <v>-150055.80929</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-29610.15227</v>
+        <v>-32846.15293</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-28866.83041</v>
+        <v>8000.291509999996</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-75870.17737</v>
+        <v>-103289.62146</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-90533.52871</v>
+        <v>-191178.78585</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-134906.28279</v>
+        <v>-150750.43237</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-115958.30893</v>
+        <v>-420859.17283</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-221532.60648</v>
+        <v>-637936.9461099999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-119368.56515</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>770185.0618199999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-862643.6</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>4093.25776</v>
+        <v>8906.528039999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>5300.19114</v>
+        <v>10587.41232</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>6364.147599999999</v>
+        <v>27153.8961</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>6251.924710000001</v>
+        <v>16119.85774</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>8668.673620000001</v>
+        <v>30747.11521</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>10305.97613</v>
+        <v>33641.92773999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>8171.38669</v>
+        <v>25972.66769</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>7693.79747</v>
+        <v>34337.22021</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>7690.68803</v>
+        <v>27583.61137</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>25222.64791</v>
+        <v>94357.72282</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>29866.6672</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>107786.13987</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>110612.425</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-17361.88544</v>
+        <v>-24946.36263</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-21017.73712</v>
+        <v>-46968.76196</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-74723.15658999998</v>
+        <v>-177209.70539</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-35862.07698</v>
+        <v>-48966.01067</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-37535.50403</v>
+        <v>-22746.82370000002</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-86176.1535</v>
+        <v>-136931.5492</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-98704.9154</v>
+        <v>-217151.45354</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-142600.08026</v>
+        <v>-185087.6525800001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-123648.99696</v>
+        <v>-448442.7842000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-246755.25439</v>
+        <v>-732294.66893</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-149235.23235</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>662398.9219500001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-973256.025</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>4897</v>
+        <v>5403</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>5387</v>
+        <v>5971</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>5664</v>
+        <v>6329</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>5733</v>
+        <v>6541</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6228</v>
+        <v>7468</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>6599</v>
+        <v>8118</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>6712</v>
+        <v>8081</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>7116</v>
+        <v>8702</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>7894</v>
+        <v>9600</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>9535</v>
+        <v>11330</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>10031</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>12509</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>13590</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>